--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="395">
   <si>
     <t xml:space="preserve">Page Title</t>
   </si>
@@ -1237,9 +1237,6 @@
     <t xml:space="preserve">Don’t forget about your rings! Check out what you left behind. Quality gold and diamond rings at direct prices.</t>
   </si>
   <si>
-    <t xml:space="preserve">about</t>
-  </si>
-  <si>
     <t xml:space="preserve">trio-rings/</t>
   </si>
   <si>
@@ -1261,64 +1258,70 @@
     <t xml:space="preserve">Ladies-Wedding-Bands/</t>
   </si>
   <si>
-    <t xml:space="preserve">Same-Sex-Mens-Band-Set/</t>
+    <t xml:space="preserve">contact-us/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring-engraving-service.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended-service-plan.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus Size Wedding Rings | My Trio Rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revelinrose/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ways-to-pay/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the stories of our featured couples, and see their picture perfect rings! What makes you the perfect match? We'd love to feature your love story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond-overview/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the-4cs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">understanding-diamond-grading/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todays-diamond-industry/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond-trends/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold-overview/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum-jewelry/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ring-fit-types/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-vs-them/</t>
   </si>
   <si>
     <t xml:space="preserve">ring-size-guide/</t>
   </si>
   <si>
+    <t xml:space="preserve">Same-Sex-Mens-Band-Set.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the-gentlemans-guide-to-proposing/</t>
+  </si>
+  <si>
     <t xml:space="preserve">testimonials/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact-us/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ring-engraving-service/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extended-service-plan/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revelinrose/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ways-to-pay/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond-overview/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the-4cs/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">understanding-diamond-grading/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todays-diamond-industry/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond-trends/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold-overview/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum-jewelry/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ring-fit-types/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-vs-them/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the-gentlemans-guide-to-proposing/</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1447,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1485,6 +1488,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDFA7A6"/>
         <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1550,7 +1565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1727,6 +1742,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2192,7 +2243,7 @@
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.41"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="64.88"/>
@@ -2909,7 +2960,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.86"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="8" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="103.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="62.3"/>
@@ -4139,7 +4190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="132.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="116.42"/>
@@ -5197,51 +5248,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="124.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>368</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,10 +5300,10 @@
         <v>369</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,10 +5311,10 @@
         <v>370</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,10 +5322,10 @@
         <v>371</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,517 +5333,506 @@
         <v>372</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>374</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>375</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>377</v>
+      <c r="A12" s="7" t="str">
+        <f aca="false">HYPERLINK("same-sex-wedding-bands.html","same-sex-wedding-bands/")</f>
+        <v>same-sex-wedding-bands/</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>378</v>
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="str">
+        <f aca="false">HYPERLINK("student.html/","student/")</f>
+        <v>student/</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>379</v>
+      <c r="A14" s="7" t="str">
+        <f aca="false">HYPERLINK("military.html/","military/")</f>
+        <v>military/</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>380</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="str">
+        <f aca="false">HYPERLINK("wedding-ring-sets-on-a-budget.html","wedding-ring-sets-on-a-budget/")</f>
+        <v>wedding-ring-sets-on-a-budget/</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="str">
-        <f aca="false">HYPERLINK("same-sex-wedding-bands.html","same-sex-wedding-bands/")</f>
-        <v>same-sex-wedding-bands/</v>
+        <f aca="false">HYPERLINK("she-said-yes-special.html","she-said-yes-special/")</f>
+        <v>she-said-yes-special/</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="str">
+        <f aca="false">HYPERLINK("plus-size-wedding-ring-sets.html","plus-size-wedding-ring-set/")</f>
+        <v>plus-size-wedding-ring-set/</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="str">
+        <f aca="false">HYPERLINK("about.html","about/")</f>
+        <v>about/</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="str">
+        <f aca="false">HYPERLINK("contact-us.html","contact-us/")</f>
+        <v>contact-us/</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="str">
+        <f aca="false">HYPERLINK("30-day-satisfaction-guarantee.html","30-day-satisfaction-guarantee/")</f>
+        <v>30-day-satisfaction-guarantee/</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="str">
+        <f aca="false">HYPERLINK("warranty-and-repairs.html","warranty-and-repairs/")</f>
+        <v>warranty-and-repairs/</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="str">
+        <f aca="false">HYPERLINK("worry-free-shopping.html","worry-free-shopping/")</f>
+        <v>worry-free-shopping/</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="str">
+        <f aca="false">HYPERLINK("free-shipping.html","free-shipping/")</f>
+        <v>free-shipping/</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="str">
+        <f aca="false">HYPERLINK("buying-online","buying-online/")</f>
+        <v>buying-online/</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="str">
+        <f aca="false">HYPERLINK("buy-now-pay-later.html","buy-now-pay-later/")</f>
+        <v>buy-now-pay-later/</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="str">
+        <f aca="false">HYPERLINK("layaway-plan.html","layaway-plan/")</f>
+        <v>layaway-plan/</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="str">
+        <f aca="false">HYPERLINK("my-trio-rings-in-the-news.html","my-trio-rings-in-the-news/")</f>
+        <v>my-trio-rings-in-the-news/</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="str">
+        <f aca="false">HYPERLINK("faqs.html","faqs/")</f>
+        <v>faqs/</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="str">
+        <f aca="false">HYPERLINK("reviews","reviews/")</f>
+        <v>reviews/</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="str">
+        <f aca="false">HYPERLINK("couples-Spotlight/","couples-Spotlight/")</f>
+        <v>couples-Spotlight/</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27" t="str">
+        <f aca="false">HYPERLINK("requesting-an-ma.html","requesting-an-ma/")</f>
+        <v>requesting-an-ma/</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="str">
+        <f aca="false">HYPERLINK("ring-size-guide2.html","ring-size-guide/")</f>
+        <v>ring-size-guide/</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="str">
+        <f aca="false">HYPERLINK("services.html","services/")</f>
+        <v>services/</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" s="48" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="49" t="str">
         <f aca="false">HYPERLINK("trio-ring-sets-on-layaway.html/","trio-ring-sets-on-layaway/")</f>
         <v>trio-ring-sets-on-layaway/</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B49" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C49" s="51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="str">
-        <f aca="false">HYPERLINK("student.html/","student/")</f>
-        <v>student/</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="str">
-        <f aca="false">HYPERLINK("military.html/","military/")</f>
-        <v>military/</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="str">
-        <f aca="false">HYPERLINK("wedding-ring-sets-on-a-budget.html","wedding-ring-sets-on-a-budget/")</f>
-        <v>wedding-ring-sets-on-a-budget/</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="str">
-        <f aca="false">HYPERLINK("she-said-yes-special.html","she-said-yes-special/")</f>
-        <v>she-said-yes-special/</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="str">
-        <f aca="false">HYPERLINK("plus-size-wedding-ring-sets.html","plus-size-wedding-ring-set/")</f>
-        <v>plus-size-wedding-ring-set/</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="str">
-        <f aca="false">HYPERLINK("about.html","about/")</f>
-        <v>about/</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="str">
+    <row r="50" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="52" t="str">
         <f aca="false">HYPERLINK("for-the-perfect-match.html","for-the-perfect-match/")</f>
         <v>for-the-perfect-match/</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B51" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C51" s="44" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="str">
+    <row r="52" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="52" t="str">
         <f aca="false">HYPERLINK("for-the-perfect-match.html","for-the-perfect-match/")</f>
         <v>for-the-perfect-match/</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B52" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C52" s="44" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="str">
-        <f aca="false">HYPERLINK("contact-us.html","contact-us/")</f>
-        <v>contact-us/</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="str">
-        <f aca="false">HYPERLINK("30-day-satisfaction-guarantee.html","30-day-satisfaction-guarantee/")</f>
-        <v>30-day-satisfaction-guarantee/</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="str">
-        <f aca="false">HYPERLINK("services.html","services/")</f>
-        <v>services/</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="str">
-        <f aca="false">HYPERLINK("warranty-and-repairs.html","warranty-and-repairs/")</f>
-        <v>warranty-and-repairs/</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="str">
-        <f aca="false">HYPERLINK("worry-free-shopping.html","worry-free-shopping/")</f>
-        <v>worry-free-shopping/</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="str">
-        <f aca="false">HYPERLINK("free-shipping.html","free-shipping/")</f>
-        <v>free-shipping/</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="str">
-        <f aca="false">HYPERLINK("ring-size-guide2.html","ring-size-guide/")</f>
-        <v>ring-size-guide/</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="str">
-        <f aca="false">HYPERLINK("buying-online","buying-online/")</f>
-        <v>buying-online/</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="str">
-        <f aca="false">HYPERLINK("buy-now-pay-later.html","buy-now-pay-later/")</f>
-        <v>buy-now-pay-later/</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="str">
-        <f aca="false">HYPERLINK("layaway-plan.html","layaway-plan/")</f>
-        <v>layaway-plan/</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="str">
-        <f aca="false">HYPERLINK("my-trio-rings-in-the-news.html","my-trio-rings-in-the-news/")</f>
-        <v>my-trio-rings-in-the-news/</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="str">
-        <f aca="false">HYPERLINK("faqs.html","faqs/")</f>
-        <v>faqs/</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="str">
-        <f aca="false">HYPERLINK("reviews","reviews/")</f>
-        <v>reviews/</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="str">
-        <f aca="false">HYPERLINK("Customer-Spotlight/","Customer-Spotlight/")</f>
-        <v>Customer-Spotlight/</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="str">
-        <f aca="false">HYPERLINK("requesting-an-ma.html","requesting-an-ma/")</f>
-        <v>requesting-an-ma/</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="Get in touch! Contact us by live chat, email, or phone. 1-855-MY-RINGS, contactus@mytriorings.com"/>
-    <hyperlink ref="C27" r:id="rId2" display="Get in touch! Contact us by live chat, email, or phone. 1-855-MY-RINGS, contactus@mytriorings.com"/>
+    <hyperlink ref="C8" r:id="rId1" display="Get in touch! Contact us by live chat, email, or phone. 1-855-MY-RINGS, contactus@mytriorings.com"/>
+    <hyperlink ref="C20" r:id="rId2" display="Get in touch! Contact us by live chat, email, or phone. 1-855-MY-RINGS, contactus@mytriorings.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
